--- a/ELM/Brtnik/MereniCharakteristikOperacnihoZesilovace/ELM_Protokol.xlsx
+++ b/ELM/Brtnik/MereniCharakteristikOperacnihoZesilovace/ELM_Protokol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ELM\Brtnik\MereniCharakteristikOperacnihoZesilovace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\ELM\Brtnik\MereniCharakteristikOperacnihoZesilovace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3426665B-9C96-4720-BFD2-ADFAC580BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156084A7-D743-4AD5-99C1-1B14EE3B2C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8A85DCE3-DB18-45CC-ADD1-5D991AAD4BD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{8A85DCE3-DB18-45CC-ADD1-5D991AAD4BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1110,6 +1110,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1119,6 +1221,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1128,58 +1245,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1198,103 +1294,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1864,7 +1863,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
@@ -1903,122 +1902,122 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="33"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="33"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="44"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2053,20 +2052,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(1,0), ".")</f>
         <v>1.</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
@@ -2077,20 +2076,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(2,0), ".")</f>
         <v>2.</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
@@ -2101,20 +2100,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(3,0), ".")</f>
         <v>3.</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
@@ -2125,20 +2124,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(4,0), ".")</f>
         <v>4.</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
     </row>
@@ -2149,18 +2148,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(5,0), ".")</f>
         <v>5.</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
@@ -2178,134 +2177,134 @@
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="18" t="s">
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="18" t="s">
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="54"/>
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="26"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="18" t="s">
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="18" t="s">
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="54"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="62"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="18" t="s">
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="27" t="s">
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="20"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="54"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="26"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="57"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2369,6 +2368,12 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D24:H25"/>
+    <mergeCell ref="I24:M25"/>
+    <mergeCell ref="N24:R25"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="I26:M27"/>
+    <mergeCell ref="N26:R27"/>
     <mergeCell ref="D7:R8"/>
     <mergeCell ref="D9:R10"/>
     <mergeCell ref="D11:R12"/>
@@ -2380,12 +2385,6 @@
     <mergeCell ref="F17:Q17"/>
     <mergeCell ref="F18:Q18"/>
     <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="I24:M25"/>
-    <mergeCell ref="N24:R25"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="I26:M27"/>
-    <mergeCell ref="N26:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2397,7 +2396,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
@@ -2428,23 +2427,23 @@
     </row>
     <row r="5" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,99 +2467,99 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2569,23 +2568,23 @@
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2607,123 +2606,123 @@
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="52" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="48" t="s">
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="52" t="s">
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="48"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="48" t="s">
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="65"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="54" t="s">
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="54" t="s">
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="54" t="s">
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="73"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="54" t="s">
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="54" t="s">
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="54" t="s">
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="73"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="4"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="47"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="79"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="4"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="47"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="79"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2732,23 +2731,23 @@
     </row>
     <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2772,135 +2771,135 @@
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2926,6 +2925,20 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="D21:R21"/>
     <mergeCell ref="D23:R29"/>
@@ -2942,20 +2955,6 @@
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2968,7 +2967,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C3:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
@@ -3008,23 +3007,23 @@
     </row>
     <row r="5" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3048,194 +3047,194 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3245,23 +3244,23 @@
     </row>
     <row r="18" spans="3:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:24" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3289,210 +3288,208 @@
     </row>
     <row r="20" spans="3:24" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="20">
         <v>0.5</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="20">
         <v>0.4</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="20">
         <v>0.3</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="20">
         <v>0.2</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="20">
         <v>0.1</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="20">
         <v>0</v>
       </c>
-      <c r="K20" s="67">
+      <c r="K20" s="20">
         <v>-0.1</v>
       </c>
-      <c r="L20" s="67">
+      <c r="L20" s="20">
         <v>-0.2</v>
       </c>
-      <c r="M20" s="67">
+      <c r="M20" s="20">
         <v>-0.3</v>
       </c>
-      <c r="N20" s="67">
+      <c r="N20" s="20">
         <v>-0.4</v>
       </c>
-      <c r="O20" s="68">
+      <c r="O20" s="21">
         <v>-0.5</v>
       </c>
       <c r="S20" s="5"/>
-      <c r="W20" s="80" t="s">
+      <c r="W20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X20" s="68">
+      <c r="X20" s="21">
         <f>-(X23/X24)*X22</f>
         <v>-0.30299999999999999</v>
       </c>
     </row>
     <row r="21" spans="3:24" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="76">
-        <f>(E20/($R$21+$R$22))*$R$22*1000</f>
+      <c r="E21" s="36">
+        <f t="shared" ref="E21:O21" si="0">(E20/($R$21+$R$22))*$R$22*1000</f>
         <v>4.9504950495049505</v>
       </c>
-      <c r="F21" s="76">
-        <f>(F20/($R$21+$R$22))*$R$22*1000</f>
+      <c r="F21" s="36">
+        <f t="shared" si="0"/>
         <v>3.9603960396039604</v>
       </c>
-      <c r="G21" s="76">
-        <f>(G20/($R$21+$R$22))*$R$22*1000</f>
+      <c r="G21" s="36">
+        <f t="shared" si="0"/>
         <v>2.9702970297029703</v>
       </c>
-      <c r="H21" s="76">
-        <f>(H20/($R$21+$R$22))*$R$22*1000</f>
+      <c r="H21" s="36">
+        <f t="shared" si="0"/>
         <v>1.9801980198019802</v>
       </c>
-      <c r="I21" s="76">
-        <f>(I20/($R$21+$R$22))*$R$22*1000</f>
+      <c r="I21" s="36">
+        <f t="shared" si="0"/>
         <v>0.99009900990099009</v>
       </c>
-      <c r="J21" s="76">
-        <f>(J20/($R$21+$R$22))*$R$22*1000</f>
+      <c r="J21" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="76">
-        <f>(K20/($R$21+$R$22))*$R$22*1000</f>
+      <c r="K21" s="36">
+        <f t="shared" si="0"/>
         <v>-0.99009900990099009</v>
       </c>
-      <c r="L21" s="76">
-        <f>(L20/($R$21+$R$22))*$R$22*1000</f>
+      <c r="L21" s="36">
+        <f t="shared" si="0"/>
         <v>-1.9801980198019802</v>
       </c>
-      <c r="M21" s="76">
-        <f>(M20/($R$21+$R$22))*$R$22*1000</f>
+      <c r="M21" s="36">
+        <f t="shared" si="0"/>
         <v>-2.9702970297029703</v>
       </c>
-      <c r="N21" s="76">
-        <f>(N20/($R$21+$R$22))*$R$22*1000</f>
+      <c r="N21" s="36">
+        <f t="shared" si="0"/>
         <v>-3.9603960396039604</v>
       </c>
-      <c r="O21" s="77">
-        <f>(O20/($R$21+$R$22))*$R$22*1000</f>
+      <c r="O21" s="37">
+        <f t="shared" si="0"/>
         <v>-4.9504950495049505</v>
       </c>
       <c r="P21" s="15"/>
-      <c r="Q21" s="60" t="s">
+      <c r="Q21" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="66">
+      <c r="R21" s="29">
         <v>100000</v>
       </c>
       <c r="S21" s="5"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
     </row>
     <row r="22" spans="3:24" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="18">
         <v>-13.54</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="18">
         <v>-13.54</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="18">
         <v>-13.53</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="18">
         <v>-13.51</v>
       </c>
-      <c r="I22" s="74">
+      <c r="I22" s="34">
         <v>-13.49</v>
       </c>
-      <c r="J22" s="72">
+      <c r="J22" s="18">
         <v>15.08</v>
       </c>
-      <c r="K22" s="72">
+      <c r="K22" s="18">
         <v>15.25</v>
       </c>
-      <c r="L22" s="72">
+      <c r="L22" s="18">
         <v>15.25</v>
       </c>
-      <c r="M22" s="72">
+      <c r="M22" s="18">
         <v>15.25</v>
       </c>
-      <c r="N22" s="74">
+      <c r="N22" s="34">
         <v>15.25</v>
       </c>
-      <c r="O22" s="73">
+      <c r="O22" s="33">
         <v>15.25</v>
       </c>
       <c r="P22" s="11"/>
-      <c r="Q22" s="64" t="s">
+      <c r="Q22" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="R22" s="71">
+      <c r="R22" s="32">
         <v>1000</v>
       </c>
       <c r="S22" s="5"/>
-      <c r="W22" s="69" t="s">
+      <c r="W22" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="X22" s="66">
+      <c r="X22" s="29">
         <v>30.3</v>
       </c>
     </row>
     <row r="23" spans="3:24" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="35">
         <v>15.25</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="35">
         <v>15.25</v>
       </c>
-      <c r="G23" s="75">
+      <c r="G23" s="35">
         <v>15.25</v>
       </c>
-      <c r="H23" s="75">
+      <c r="H23" s="35">
         <v>15.25</v>
       </c>
-      <c r="I23" s="75">
+      <c r="I23" s="35">
         <v>15.25</v>
       </c>
-      <c r="J23" s="75">
+      <c r="J23" s="35">
         <v>15.12</v>
       </c>
-      <c r="K23" s="75">
+      <c r="K23" s="35">
         <v>-13.49</v>
       </c>
-      <c r="L23" s="75">
+      <c r="L23" s="35">
         <v>-13.52</v>
       </c>
-      <c r="M23" s="75">
+      <c r="M23" s="35">
         <v>-13.525</v>
       </c>
-      <c r="N23" s="75">
+      <c r="N23" s="35">
         <v>-13.53</v>
       </c>
-      <c r="O23" s="71">
+      <c r="O23" s="32">
         <v>-13.54</v>
       </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="5"/>
-      <c r="W23" s="78" t="s">
+      <c r="W23" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="X23" s="73">
+      <c r="X23" s="33">
         <v>1000</v>
       </c>
     </row>
@@ -3511,10 +3508,10 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="5"/>
-      <c r="W24" s="70" t="s">
+      <c r="W24" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="X24" s="71">
+      <c r="X24" s="32">
         <v>100000</v>
       </c>
     </row>
@@ -3537,7 +3534,7 @@
     </row>
     <row r="26" spans="3:24" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="22" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="11"/>
@@ -3556,7 +3553,7 @@
     </row>
     <row r="27" spans="3:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="16">
@@ -3577,7 +3574,7 @@
     </row>
     <row r="28" spans="3:24" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="17">
@@ -3652,8 +3649,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,23 +3680,23 @@
     </row>
     <row r="5" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3723,59 +3720,59 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3799,23 +3796,23 @@
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3824,173 +3821,173 @@
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3999,23 +3996,23 @@
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4039,99 +4036,99 @@
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
